--- a/2/lab/AnsiblePythonLab.xlsx
+++ b/2/lab/AnsiblePythonLab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/to-yuki/Documents/Job/git/ansible-python/lab2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/to-yuki/Documents/Job/git/ansible-python/2/lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9142963-5E3E-EA41-AF02-8B9DCFE6D669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76728775-82FF-8F4E-AB9B-89348A3F2AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33540" yWindow="520" windowWidth="30520" windowHeight="18400" activeTab="1" xr2:uid="{EFECBEB6-E903-D344-AEE8-F37B96A76D4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>ホスト名</t>
     <phoneticPr fontId="1"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>172.25.2.1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※パラメータ設定シートのレイアウトは変更しないでください。</t>
   </si>
   <si>
@@ -175,14 +171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>172.25.2.118</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>172.25.0.2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイアウォール(インバウンド許可）リスト</t>
     <rPh sb="15" eb="17">
       <t>キョカ</t>
@@ -234,15 +222,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>172.25.2.42</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cat </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ntp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxx.xxx.xxx.xxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -250,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +250,19 @@
       <sz val="6"/>
       <name val="MS-PGothic"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS-PGothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS-PGothic"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -372,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,6 +422,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -433,16 +443,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DEE2C-24EB-7D41-9A4C-9F82E951DBEC}">
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="166" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -773,15 +783,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16" thickBot="1">
-      <c r="B1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="12"/>
@@ -794,14 +804,14 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="8"/>
     </row>
@@ -811,7 +821,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="13"/>
     </row>
@@ -838,37 +848,37 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -877,15 +887,15 @@
       <c r="C11" s="7"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="22"/>
+      <c r="E13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="4" t="s">
@@ -897,10 +907,10 @@
       <c r="E14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
@@ -912,10 +922,10 @@
       <c r="E15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="1" t="s">
@@ -927,10 +937,10 @@
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
@@ -940,78 +950,78 @@
         <v>12</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="6"/>
@@ -1021,10 +1031,10 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="22"/>
+      <c r="B29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="24"/>
       <c r="D29" s="15"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1035,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
@@ -1047,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
@@ -1059,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="6"/>
@@ -1098,14 +1108,14 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="5" t="s">
@@ -1117,18 +1127,18 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:7">
@@ -1156,82 +1166,76 @@
       <c r="C47" s="2"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
+      <c r="B50" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" spans="2:7">
       <c r="D57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="F58" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="21"/>
+      <c r="F58" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B50:G50"/>
     <mergeCell ref="B51:G56"/>
@@ -1248,6 +1252,12 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1258,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DAD76F-C8C2-2749-9271-F49945AD563C}">
   <dimension ref="B1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="166" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1270,15 +1280,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="16" thickBot="1">
-      <c r="B1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="12"/>
@@ -1291,14 +1301,14 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="8"/>
     </row>
@@ -1308,7 +1318,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="13"/>
     </row>
@@ -1326,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1335,37 +1345,37 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -1374,15 +1384,15 @@
       <c r="C11" s="7"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="22"/>
+      <c r="E13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="9" t="s">
@@ -1394,109 +1404,109 @@
       <c r="E14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="6"/>
@@ -1506,10 +1516,10 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="22"/>
+      <c r="B29" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="24"/>
       <c r="D29" s="15"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1520,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
@@ -1532,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="6"/>
@@ -1581,14 +1591,14 @@
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="2:7">
       <c r="B39" s="10" t="s">
@@ -1600,10 +1610,10 @@
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="41" spans="2:7">
@@ -1635,76 +1645,86 @@
       <c r="C47" s="8"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
+      <c r="B50" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" spans="2:7">
       <c r="D57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="2:7">
-      <c r="F58" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="21"/>
+      <c r="F58" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G56"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B13:C13"/>
@@ -1717,16 +1737,6 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G56"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
